--- a/18793@surfman.com_purchased_results.xlsx
+++ b/18793@surfman.com_purchased_results.xlsx
@@ -399,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -430,7 +430,7 @@
         <v>18793@surfman.com</v>
       </c>
       <c r="B2" t="str">
-        <v>Stranger</v>
+        <v>A級經銷商</v>
       </c>
       <c r="C2" t="str">
         <v>尊貴頭等艙</v>

--- a/18793@surfman.com_purchased_results.xlsx
+++ b/18793@surfman.com_purchased_results.xlsx
@@ -438,14 +438,14 @@
       <c r="D2" t="str">
         <v>5080</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="str">
+        <v>1,500,000</v>
+      </c>
+      <c r="F2" t="str">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2" t="str">
-        <v/>
+        <v>https://www.energyheart.com.tw/?ref=400&amp;openExternalBrowser=1</v>
       </c>
     </row>
   </sheetData>

--- a/18793@surfman.com_purchased_results.xlsx
+++ b/18793@surfman.com_purchased_results.xlsx
@@ -430,7 +430,7 @@
         <v>18793@surfman.com</v>
       </c>
       <c r="B2" t="str">
-        <v>A級經銷商</v>
+        <v>C級經銷商</v>
       </c>
       <c r="C2" t="str">
         <v>尊貴頭等艙</v>
